--- a/DM/databank/banking/deal_management/DM_Automation_Negotiability_Module.xlsx
+++ b/DM/databank/banking/deal_management/DM_Automation_Negotiability_Module.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TestCases-Existing Customer" sheetId="11" r:id="rId1"/>
     <sheet name="TestCases-Existing Customer_0ld" sheetId="6" r:id="rId2"/>
-    <sheet name="Datasheet - Customer-Account" sheetId="9" r:id="rId3"/>
+    <sheet name="TestDataSheet" sheetId="9" r:id="rId3"/>
     <sheet name="Testcases -Existing Account" sheetId="8" r:id="rId4"/>
     <sheet name="Testcases - Prospect" sheetId="10" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="533">
   <si>
     <t>Module</t>
   </si>
@@ -1684,6 +1684,9 @@
   </si>
   <si>
     <t>Please enter the rate value between Floor 11.00 and Ceil 14.99.</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2087,7 +2090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2408,9 +2411,9 @@
     <xf numFmtId="49" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -32370,10 +32373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN158"/>
+  <dimension ref="A1:DN159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32400,18 +32403,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="20" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
       <c r="L1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
@@ -32473,12 +32476,12 @@
       <c r="A2" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
       <c r="H2" s="20"/>
@@ -32581,18 +32584,18 @@
     </row>
     <row r="5" spans="1:118" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:118" s="20" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
       <c r="L6" s="21"/>
       <c r="AG6" s="24"/>
       <c r="AH6" s="24"/>
@@ -32829,16 +32832,16 @@
     </row>
     <row r="9" spans="1:118" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:118" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
       <c r="L10" s="21"/>
       <c r="BN10" s="22"/>
       <c r="BO10" s="22"/>
@@ -32994,15 +32997,15 @@
     </row>
     <row r="14" spans="1:118" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:118" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
     </row>
     <row r="16" spans="1:118" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
@@ -34025,11 +34028,11 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:117" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="131" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
     </row>
     <row r="41" spans="1:117" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
@@ -34084,18 +34087,18 @@
     </row>
     <row r="44" spans="1:117" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:117" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="132"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="134"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="BM45" s="22"/>
@@ -36995,12 +36998,12 @@
       <c r="DM76" s="22"/>
     </row>
     <row r="77" spans="1:117" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="121" t="s">
+      <c r="A77" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="123"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="125"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
       <c r="V77" s="20"/>
@@ -37107,12 +37110,12 @@
     </row>
     <row r="81" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:8" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="B82" s="122"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="123"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="125"/>
     </row>
     <row r="83" spans="1:8" s="29" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
@@ -37463,27 +37466,27 @@
       </c>
     </row>
     <row r="99" spans="1:18" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="130" t="s">
+      <c r="A99" s="132" t="s">
         <v>428</v>
       </c>
-      <c r="B99" s="130"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="130"/>
-      <c r="F99" s="130"/>
-      <c r="G99" s="130"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="130"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="130"/>
+      <c r="B99" s="132"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="132"/>
+      <c r="G99" s="132"/>
+      <c r="H99" s="132"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="132"/>
+      <c r="K99" s="132"/>
     </row>
     <row r="101" spans="1:18" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="131" t="s">
+      <c r="A101" s="133" t="s">
         <v>429</v>
       </c>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="133"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="82" t="s">
@@ -37515,26 +37518,26 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A105" s="127" t="s">
+      <c r="A105" s="129" t="s">
         <v>435</v>
       </c>
-      <c r="B105" s="128"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
-      <c r="H105" s="128"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="128"/>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
-      <c r="M105" s="128"/>
-      <c r="N105" s="128"/>
-      <c r="O105" s="128"/>
-      <c r="P105" s="128"/>
-      <c r="Q105" s="128"/>
-      <c r="R105" s="128"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="130"/>
+      <c r="G105" s="130"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="130"/>
+      <c r="J105" s="130"/>
+      <c r="K105" s="130"/>
+      <c r="L105" s="130"/>
+      <c r="M105" s="130"/>
+      <c r="N105" s="130"/>
+      <c r="O105" s="130"/>
+      <c r="P105" s="130"/>
+      <c r="Q105" s="130"/>
+      <c r="R105" s="130"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="82" t="s">
@@ -37607,11 +37610,11 @@
       </c>
       <c r="E107" s="88" t="str">
         <f ca="1">TEXT(TODAY(),"MM-DD-YYYY")</f>
-        <v>01-25-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="F107" s="103" t="str">
         <f ca="1">TEXT(TODAY(),"MM-DD-YYYY")</f>
-        <v>01-25-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="G107" s="85" t="s">
         <v>455</v>
@@ -37650,26 +37653,26 @@
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A109" s="127" t="s">
+      <c r="A109" s="129" t="s">
         <v>457</v>
       </c>
-      <c r="B109" s="128"/>
-      <c r="C109" s="128"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="128"/>
-      <c r="H109" s="128"/>
-      <c r="I109" s="128"/>
-      <c r="J109" s="128"/>
-      <c r="K109" s="128"/>
-      <c r="L109" s="128"/>
-      <c r="M109" s="128"/>
-      <c r="N109" s="128"/>
-      <c r="O109" s="128"/>
-      <c r="P109" s="128"/>
-      <c r="Q109" s="128"/>
-      <c r="R109" s="128"/>
+      <c r="B109" s="130"/>
+      <c r="C109" s="130"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="130"/>
+      <c r="G109" s="130"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="130"/>
+      <c r="J109" s="130"/>
+      <c r="K109" s="130"/>
+      <c r="L109" s="130"/>
+      <c r="M109" s="130"/>
+      <c r="N109" s="130"/>
+      <c r="O109" s="130"/>
+      <c r="P109" s="130"/>
+      <c r="Q109" s="130"/>
+      <c r="R109" s="130"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="82" t="s">
@@ -37738,11 +37741,11 @@
       </c>
       <c r="G111" s="110" t="str">
         <f ca="1">E107</f>
-        <v>01-25-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="H111" s="110">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45145</v>
       </c>
       <c r="I111" s="109"/>
       <c r="J111" s="109"/>
@@ -37829,26 +37832,26 @@
       <c r="D117" s="118"/>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A118" s="127" t="s">
+      <c r="A118" s="129" t="s">
         <v>520</v>
       </c>
-      <c r="B118" s="128"/>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
-      <c r="F118" s="128"/>
-      <c r="G118" s="128"/>
-      <c r="H118" s="128"/>
-      <c r="I118" s="128"/>
-      <c r="J118" s="128"/>
-      <c r="K118" s="128"/>
-      <c r="L118" s="128"/>
-      <c r="M118" s="128"/>
-      <c r="N118" s="128"/>
-      <c r="O118" s="128"/>
-      <c r="P118" s="128"/>
-      <c r="Q118" s="128"/>
-      <c r="R118" s="128"/>
+      <c r="B118" s="130"/>
+      <c r="C118" s="130"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="130"/>
+      <c r="G118" s="130"/>
+      <c r="H118" s="130"/>
+      <c r="I118" s="130"/>
+      <c r="J118" s="130"/>
+      <c r="K118" s="130"/>
+      <c r="L118" s="130"/>
+      <c r="M118" s="130"/>
+      <c r="N118" s="130"/>
+      <c r="O118" s="130"/>
+      <c r="P118" s="130"/>
+      <c r="Q118" s="130"/>
+      <c r="R118" s="130"/>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
@@ -37865,110 +37868,111 @@
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120" s="104" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="102" t="str">
+      <c r="C121" s="104" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="121" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="102" t="str">
+      <c r="C122" s="104" t="str">
         <f>TEXT(10.99,"0.00")</f>
         <v>10.99</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="121" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="102" t="str">
+      <c r="C123" s="104" t="str">
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
+      <c r="D123" s="120"/>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="A124" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C124" s="102" t="str">
+      <c r="C124" s="104" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="121" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="A125" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="102" t="str">
+      <c r="C125" s="104" t="str">
         <f>TEXT(20.12,"0.00")</f>
         <v>20.12</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="121" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="A126" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="102" t="str">
+      <c r="C126" s="104" t="str">
         <f>TEXT(16,"0")</f>
         <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="C127" s="102" t="str">
+      <c r="C127" s="104" t="str">
         <f>TEXT(50,"0")</f>
         <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A129" s="127" t="s">
+      <c r="A129" s="129" t="s">
         <v>519</v>
       </c>
-      <c r="B129" s="128"/>
-      <c r="C129" s="128"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="128"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="128"/>
-      <c r="H129" s="128"/>
-      <c r="I129" s="128"/>
-      <c r="J129" s="128"/>
-      <c r="K129" s="128"/>
-      <c r="L129" s="128"/>
-      <c r="M129" s="128"/>
-      <c r="N129" s="128"/>
-      <c r="O129" s="128"/>
-      <c r="P129" s="128"/>
-      <c r="Q129" s="128"/>
-      <c r="R129" s="128"/>
+      <c r="B129" s="130"/>
+      <c r="C129" s="130"/>
+      <c r="D129" s="130"/>
+      <c r="E129" s="130"/>
+      <c r="F129" s="130"/>
+      <c r="G129" s="130"/>
+      <c r="H129" s="130"/>
+      <c r="I129" s="130"/>
+      <c r="J129" s="130"/>
+      <c r="K129" s="130"/>
+      <c r="L129" s="130"/>
+      <c r="M129" s="130"/>
+      <c r="N129" s="130"/>
+      <c r="O129" s="130"/>
+      <c r="P129" s="130"/>
+      <c r="Q129" s="130"/>
+      <c r="R129" s="130"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
@@ -37994,14 +37998,14 @@
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="A131" s="119" t="s">
         <v>346</v>
       </c>
       <c r="C131" s="102" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="119" t="s">
         <v>512</v>
       </c>
       <c r="G131" t="s">
@@ -38009,7 +38013,7 @@
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A132" s="119" t="s">
         <v>360</v>
       </c>
       <c r="C132" s="102" t="str">
@@ -38028,10 +38032,10 @@
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C133" s="102"/>
@@ -38042,7 +38046,7 @@
       <c r="E133" s="104">
         <v>1</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="119" t="s">
         <v>517</v>
       </c>
       <c r="G133" t="s">
@@ -38050,21 +38054,21 @@
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C134" s="102"/>
-      <c r="D134" t="str">
+      <c r="D134" s="102" t="str">
         <f>TEXT(30.1,"0.0")</f>
         <v>30.1</v>
       </c>
       <c r="E134" s="104">
         <v>1</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="119" t="s">
         <v>517</v>
       </c>
       <c r="G134" t="s">
@@ -38072,21 +38076,21 @@
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="A135" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C135" s="102"/>
-      <c r="D135" s="119" t="str">
+      <c r="D135" s="102" t="str">
         <f>TEXT(34,"0")</f>
         <v>34</v>
       </c>
       <c r="E135" s="104">
         <v>1</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="119" t="s">
         <v>517</v>
       </c>
       <c r="G135" t="s">
@@ -38094,21 +38098,21 @@
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C136" s="102"/>
-      <c r="D136" s="119" t="str">
+      <c r="D136" s="102" t="str">
         <f>TEXT(33,"0")</f>
         <v>33</v>
       </c>
       <c r="E136" s="104">
         <v>2</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="119" t="s">
         <v>517</v>
       </c>
       <c r="G136" t="s">
@@ -38116,14 +38120,14 @@
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C137" s="102"/>
-      <c r="D137" s="119" t="str">
+      <c r="D137" s="102" t="str">
         <f>TEXT(32,"0")</f>
         <v>32</v>
       </c>
@@ -38135,26 +38139,29 @@
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A138" s="119" t="s">
+        <v>532</v>
+      </c>
       <c r="C138" s="102"/>
-      <c r="D138" s="119"/>
+      <c r="D138" s="102"/>
       <c r="E138" s="104"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C139" s="102"/>
-      <c r="D139" s="119" t="str">
+      <c r="D139" s="102" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
       </c>
       <c r="E139" s="104">
         <v>1</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="119" t="s">
         <v>522</v>
       </c>
       <c r="G139" t="s">
@@ -38162,21 +38169,21 @@
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C140" s="102"/>
-      <c r="D140" s="104" t="str">
+      <c r="D140" s="102" t="str">
         <f>TEXT(20.12,"0.00")</f>
         <v>20.12</v>
       </c>
       <c r="E140" s="104">
         <v>1</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="119" t="s">
         <v>522</v>
       </c>
       <c r="G140" t="s">
@@ -38184,21 +38191,21 @@
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="A141" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C141" s="102"/>
-      <c r="D141" s="104" t="str">
+      <c r="D141" s="102" t="str">
         <f>TEXT(18,"0")</f>
         <v>18</v>
       </c>
       <c r="E141" s="104">
         <v>1</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="119" t="s">
         <v>522</v>
       </c>
       <c r="G141" t="s">
@@ -38206,21 +38213,21 @@
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="A142" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C142" s="102"/>
-      <c r="D142" s="104" t="str">
+      <c r="D142" s="102" t="str">
         <f>TEXT(17,"0")</f>
         <v>17</v>
       </c>
       <c r="E142" s="104">
         <v>2</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="119" t="s">
         <v>522</v>
       </c>
       <c r="G142" t="s">
@@ -38228,14 +38235,14 @@
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="119" t="s">
         <v>516</v>
       </c>
       <c r="C143" s="102"/>
-      <c r="D143" s="104" t="str">
+      <c r="D143" s="102" t="str">
         <f>TEXT(16,"0")</f>
         <v>16</v>
       </c>
@@ -38246,27 +38253,30 @@
         <v>514</v>
       </c>
     </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D144" s="102"/>
+    </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A145" s="127" t="s">
+      <c r="A145" s="129" t="s">
         <v>521</v>
       </c>
-      <c r="B145" s="128"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="128"/>
-      <c r="F145" s="128"/>
-      <c r="G145" s="128"/>
-      <c r="H145" s="128"/>
-      <c r="I145" s="128"/>
-      <c r="J145" s="128"/>
-      <c r="K145" s="128"/>
-      <c r="L145" s="128"/>
-      <c r="M145" s="128"/>
-      <c r="N145" s="128"/>
-      <c r="O145" s="128"/>
-      <c r="P145" s="128"/>
-      <c r="Q145" s="128"/>
-      <c r="R145" s="128"/>
+      <c r="B145" s="130"/>
+      <c r="C145" s="130"/>
+      <c r="D145" s="130"/>
+      <c r="E145" s="130"/>
+      <c r="F145" s="130"/>
+      <c r="G145" s="130"/>
+      <c r="H145" s="130"/>
+      <c r="I145" s="130"/>
+      <c r="J145" s="130"/>
+      <c r="K145" s="130"/>
+      <c r="L145" s="130"/>
+      <c r="M145" s="130"/>
+      <c r="N145" s="130"/>
+      <c r="O145" s="130"/>
+      <c r="P145" s="130"/>
+      <c r="Q145" s="130"/>
+      <c r="R145" s="130"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
@@ -38292,14 +38302,14 @@
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="A147" s="119" t="s">
         <v>346</v>
       </c>
       <c r="C147" s="102" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="119" t="s">
         <v>512</v>
       </c>
       <c r="G147" t="s">
@@ -38307,17 +38317,18 @@
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="A148" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="D148" s="104" t="str">
+      <c r="C148" s="102"/>
+      <c r="D148" s="102" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="119" t="s">
         <v>531</v>
       </c>
       <c r="G148" t="s">
@@ -38325,17 +38336,18 @@
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="D149" s="104" t="str">
+      <c r="C149" s="102"/>
+      <c r="D149" s="102" t="str">
         <f>TEXT(10.99,"0.00")</f>
         <v>10.99</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="119" t="s">
         <v>531</v>
       </c>
       <c r="G149" t="s">
@@ -38343,10 +38355,10 @@
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="D150" s="104" t="str">
+      <c r="D150" s="102" t="str">
         <f>TEXT(11, "0")</f>
         <v>11</v>
       </c>
@@ -38358,26 +38370,26 @@
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A152" s="127" t="s">
+      <c r="A152" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="B152" s="128"/>
-      <c r="C152" s="128"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="128"/>
-      <c r="F152" s="128"/>
-      <c r="G152" s="128"/>
-      <c r="H152" s="128"/>
-      <c r="I152" s="128"/>
-      <c r="J152" s="128"/>
-      <c r="K152" s="128"/>
-      <c r="L152" s="128"/>
-      <c r="M152" s="128"/>
-      <c r="N152" s="128"/>
-      <c r="O152" s="128"/>
-      <c r="P152" s="128"/>
-      <c r="Q152" s="128"/>
-      <c r="R152" s="128"/>
+      <c r="B152" s="130"/>
+      <c r="C152" s="130"/>
+      <c r="D152" s="130"/>
+      <c r="E152" s="130"/>
+      <c r="F152" s="130"/>
+      <c r="G152" s="130"/>
+      <c r="H152" s="130"/>
+      <c r="I152" s="130"/>
+      <c r="J152" s="130"/>
+      <c r="K152" s="130"/>
+      <c r="L152" s="130"/>
+      <c r="M152" s="130"/>
+      <c r="N152" s="130"/>
+      <c r="O152" s="130"/>
+      <c r="P152" s="130"/>
+      <c r="Q152" s="130"/>
+      <c r="R152" s="130"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -38389,39 +38401,39 @@
       <c r="C153" t="s">
         <v>509</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="119" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="C154" s="104" t="str">
+      <c r="C154" s="102" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="119" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="C155" s="104" t="str">
+      <c r="C155" s="102" t="str">
         <f>TEXT(20.12,"0.00")</f>
         <v>20.12</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="119" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="C156" s="104" t="str">
+      <c r="C156" s="102" t="str">
         <f>TEXT(16,"0")</f>
         <v>16</v>
       </c>
@@ -38431,6 +38443,9 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C158" s="102"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C159" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -48032,7 +48047,7 @@
       <c r="Q88" s="19"/>
       <c r="R88" s="76"/>
     </row>
-    <row r="89" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="26" x14ac:dyDescent="0.35">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -48320,7 +48335,7 @@
       <c r="Q99" s="19"/>
       <c r="R99" s="76"/>
     </row>
-    <row r="100" spans="1:18" ht="39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="26" x14ac:dyDescent="0.35">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
